--- a/Electronique/Routage.xlsx
+++ b/Electronique/Routage.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="75">
   <si>
     <t>TXT</t>
   </si>
@@ -205,12 +205,6 @@
     <t>SCL</t>
   </si>
   <si>
-    <t>Entrée 5V</t>
-  </si>
-  <si>
-    <t>Sortie 5V Relai Pi</t>
-  </si>
-  <si>
     <t>+5V</t>
   </si>
   <si>
@@ -226,23 +220,41 @@
     <t>LED</t>
   </si>
   <si>
-    <t>cmd relai 12V</t>
-  </si>
-  <si>
-    <t>cmd relai 5V</t>
-  </si>
-  <si>
     <t>&lt; v</t>
   </si>
   <si>
-    <t>Raspberry</t>
+    <t>Input 5V</t>
+  </si>
+  <si>
+    <t>Output 5V (Rpi relay)</t>
+  </si>
+  <si>
+    <t>Cmd relay 5V</t>
+  </si>
+  <si>
+    <t>RPI I2C</t>
+  </si>
+  <si>
+    <t>Cmd relay 12V</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Pwr Switch</t>
+  </si>
+  <si>
+    <t>^ &gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,8 +336,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +430,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -689,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1034,9 +1060,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,9 +1105,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1108,9 +1128,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1140,7 +1157,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,6 +1168,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1170,11 +1192,17 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -1188,17 +1216,52 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1237,7 +1300,7 @@
         <xdr:cNvPr id="2" name="Ellipse 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5420B94B-7886-4DB6-89B7-6DD725D8F162}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5420B94B-7886-4DB6-89B7-6DD725D8F162}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1251,6 +1314,11 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1297,7 +1365,7 @@
         <xdr:cNvPr id="4" name="Ellipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2764D891-B401-4A6C-8B28-C08BBFD3D3DF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2764D891-B401-4A6C-8B28-C08BBFD3D3DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,6 +1379,11 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1357,7 +1430,7 @@
         <xdr:cNvPr id="5" name="Ellipse 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5A5153A-E47D-4723-B84E-E8F377169E7E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A5153A-E47D-4723-B84E-E8F377169E7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,6 +1444,11 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1417,7 +1495,7 @@
         <xdr:cNvPr id="6" name="Ellipse 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E38625BC-8DBE-44F9-B834-0D113E481243}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38625BC-8DBE-44F9-B834-0D113E481243}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1431,6 +1509,11 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1751,7 +1834,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1762,10 +1845,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD31"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,46 +1859,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="180" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="180" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="180" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="152"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="192" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="178" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="178" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
       <c r="I2" s="86"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
       <c r="M2" s="86"/>
       <c r="N2" s="86"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
       <c r="R2" s="86"/>
       <c r="T2" s="86"/>
       <c r="U2" s="86"/>
@@ -1826,19 +1908,19 @@
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="88"/>
       <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="89"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
       <c r="M3" s="89"/>
       <c r="N3" s="89"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
       <c r="R3" s="89"/>
       <c r="S3" s="89"/>
       <c r="T3" s="89"/>
@@ -1857,29 +1939,29 @@
       <c r="E4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="F4" s="195" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="143"/>
+        <v>60</v>
+      </c>
+      <c r="H4" s="142"/>
       <c r="I4" s="119"/>
       <c r="J4" s="128" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="151" t="s">
-        <v>63</v>
+      <c r="L4" s="149" t="s">
+        <v>61</v>
       </c>
       <c r="M4" s="119"/>
       <c r="N4" s="122"/>
-      <c r="O4" s="153" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="151" t="s">
+      <c r="O4" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="149" t="s">
         <v>36</v>
       </c>
       <c r="Q4" s="125" t="s">
@@ -1898,26 +1980,26 @@
       <c r="AB4" s="92"/>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="168"/>
+      <c r="A5" s="165"/>
       <c r="C5" s="91"/>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="179" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="126" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="139"/>
+        <v>65</v>
+      </c>
+      <c r="F5" s="138"/>
       <c r="G5" s="119"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="137"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="136"/>
       <c r="M5" s="123"/>
       <c r="N5" s="123"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="144"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="143"/>
       <c r="R5" s="123"/>
       <c r="S5" s="123"/>
       <c r="T5" s="123"/>
@@ -1931,20 +2013,22 @@
       <c r="AB5" s="92"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="168"/>
+      <c r="A6" s="165"/>
       <c r="C6" s="91"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="191" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
       <c r="H6" s="119"/>
-      <c r="J6" s="154" t="s">
+      <c r="J6" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="146" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="136" t="s">
+      <c r="K6" s="145" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="135" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="83" t="s">
@@ -1953,13 +2037,13 @@
       <c r="N6" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="159" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="136" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="146" t="s">
+      <c r="O6" s="157" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="135" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="145" t="s">
         <v>30</v>
       </c>
       <c r="R6" s="83" t="s">
@@ -1968,10 +2052,10 @@
       <c r="S6" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="154" t="s">
+      <c r="T6" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="143"/>
+      <c r="U6" s="142"/>
       <c r="V6" s="120"/>
       <c r="W6" s="120"/>
       <c r="X6" s="120"/>
@@ -1981,26 +2065,26 @@
       <c r="AB6" s="92"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="168"/>
+      <c r="A7" s="165"/>
       <c r="C7" s="91"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
       <c r="I7" s="119"/>
       <c r="J7" s="119"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="137"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="136"/>
       <c r="M7" s="123"/>
       <c r="N7" s="123"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="135"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="134"/>
       <c r="R7" s="122"/>
       <c r="S7" s="122"/>
       <c r="T7" s="122"/>
-      <c r="U7" s="143"/>
+      <c r="U7" s="142"/>
       <c r="V7" s="120"/>
       <c r="W7" s="120"/>
       <c r="X7" s="120"/>
@@ -2010,52 +2094,52 @@
       <c r="AB7" s="92"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="168"/>
+      <c r="A8" s="165"/>
       <c r="C8" s="91"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="155" t="s">
+      <c r="D8" s="181"/>
+      <c r="E8" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="158" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="155" t="s">
+      <c r="F8" s="155" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="155" t="s">
+      <c r="K8" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="158" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="155" t="s">
+      <c r="L8" s="155" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="156" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="155" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="153" t="s">
         <v>47</v>
       </c>
       <c r="R8" s="123"/>
       <c r="S8" s="123"/>
       <c r="T8" s="123"/>
-      <c r="U8" s="145"/>
+      <c r="U8" s="144"/>
       <c r="V8" s="120"/>
       <c r="W8" s="120"/>
       <c r="X8" s="120"/>
@@ -2065,58 +2149,58 @@
       <c r="AB8" s="92"/>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="168"/>
+      <c r="A9" s="165"/>
       <c r="C9" s="91"/>
-      <c r="D9" s="155" t="s">
+      <c r="D9" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="155"/>
-      <c r="F9" s="140" t="s">
+      <c r="E9" s="153"/>
+      <c r="F9" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="197" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="149" t="s">
+      <c r="H9" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="140" t="s">
+      <c r="J9" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="140" t="s">
+      <c r="L9" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="149" t="s">
+      <c r="M9" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="149" t="s">
+      <c r="O9" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="140" t="s">
+      <c r="P9" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="125" t="s">
+      <c r="Q9" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="145"/>
+      <c r="U9" s="144"/>
       <c r="V9" s="120"/>
       <c r="W9" s="120"/>
       <c r="X9" s="120"/>
@@ -2128,41 +2212,41 @@
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="91"/>
       <c r="D10" s="123"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="165" t="s">
+      <c r="E10" s="141"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="122"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="163" t="s">
+      <c r="I10" s="205"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="T10" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="162" t="s">
+      <c r="N10" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="159" t="s">
         <v>30</v>
       </c>
       <c r="V10" s="120"/>
@@ -2174,37 +2258,53 @@
       <c r="AB10" s="92"/>
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="178" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="171"/>
+      <c r="A11" s="176" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="193">
+        <v>14</v>
+      </c>
       <c r="C11" s="91"/>
-      <c r="D11" s="150" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="141"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="179" t="s">
+      <c r="D11" s="196" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="140"/>
+      <c r="F11" s="153" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
       <c r="J11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="179" t="s">
+      <c r="K11" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="162" t="s">
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="159" t="s">
         <v>30</v>
       </c>
       <c r="V11" s="120"/>
@@ -2216,57 +2316,59 @@
       <c r="AB11" s="92"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="178"/>
-      <c r="B12" s="171"/>
+      <c r="A12" s="176"/>
+      <c r="B12" s="193" t="s">
+        <v>3</v>
+      </c>
       <c r="C12" s="91"/>
       <c r="D12" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="144"/>
-      <c r="F12" s="155" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="156" t="s">
-        <v>30</v>
-      </c>
-      <c r="S12" s="155" t="s">
+      <c r="E12" s="143"/>
+      <c r="F12" s="153" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="204" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="204" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="204" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="204" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="204" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="204" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="204" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="204" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="204" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="204" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="204" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="204" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="T12" s="83"/>
-      <c r="U12" s="162" t="s">
+      <c r="T12" s="206"/>
+      <c r="U12" s="159" t="s">
         <v>30</v>
       </c>
       <c r="V12" s="120"/>
@@ -2276,52 +2378,54 @@
       <c r="Z12" s="120"/>
       <c r="AA12" s="120"/>
       <c r="AB12" s="92"/>
-      <c r="AD12" s="166"/>
+      <c r="AD12" s="163"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="178"/>
-      <c r="B13" s="175"/>
+      <c r="A13" s="176"/>
+      <c r="B13" s="194" t="s">
+        <v>72</v>
+      </c>
       <c r="C13" s="91"/>
-      <c r="D13" s="130" t="s">
+      <c r="D13" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="174" t="s">
+      <c r="E13" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="164" t="s">
+      <c r="F13" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="202" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="162" t="s">
+      <c r="O13" s="202"/>
+      <c r="P13" s="202"/>
+      <c r="Q13" s="202"/>
+      <c r="R13" s="202"/>
+      <c r="S13" s="146"/>
+      <c r="T13" s="202"/>
+      <c r="U13" s="159" t="s">
         <v>30</v>
       </c>
       <c r="V13" s="120"/>
@@ -2331,50 +2435,52 @@
       <c r="Z13" s="120"/>
       <c r="AA13" s="120"/>
       <c r="AB13" s="92"/>
-      <c r="AD13" s="166"/>
+      <c r="AD13" s="163"/>
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="178"/>
-      <c r="B14" s="175"/>
+      <c r="A14" s="176"/>
+      <c r="B14" s="194" t="s">
+        <v>71</v>
+      </c>
       <c r="C14" s="91"/>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="173" t="s">
+      <c r="E14" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="107" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="173" t="s">
+      <c r="F14" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="138"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="162" t="s">
+      <c r="N14" s="137"/>
+      <c r="O14" s="203"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="203"/>
+      <c r="S14" s="147"/>
+      <c r="T14" s="203"/>
+      <c r="U14" s="159" t="s">
         <v>30</v>
       </c>
       <c r="V14" s="120"/>
@@ -2384,60 +2490,60 @@
       <c r="Z14" s="120"/>
       <c r="AA14" s="120"/>
       <c r="AB14" s="92"/>
-      <c r="AD14" s="167"/>
+      <c r="AD14" s="164"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="168"/>
+      <c r="A15" s="165"/>
       <c r="B15" s="87"/>
       <c r="C15" s="91"/>
       <c r="D15" s="119"/>
       <c r="E15" s="119"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="140" t="s">
+      <c r="I15" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="149" t="s">
+      <c r="M15" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="140" t="s">
+      <c r="N15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="P15" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="125" t="s">
+      <c r="S15" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="160" t="s">
+      <c r="T15" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="U15" s="162" t="s">
+      <c r="U15" s="159" t="s">
         <v>30</v>
       </c>
       <c r="V15" s="120"/>
@@ -2447,17 +2553,17 @@
       <c r="Z15" s="120"/>
       <c r="AA15" s="120"/>
       <c r="AB15" s="92"/>
-      <c r="AD15" s="167"/>
+      <c r="AD15" s="164"/>
     </row>
     <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="168"/>
+      <c r="A16" s="165"/>
       <c r="C16" s="91"/>
       <c r="D16" s="119"/>
       <c r="E16" s="119"/>
       <c r="F16" s="119"/>
       <c r="G16" s="119"/>
       <c r="H16" s="119"/>
-      <c r="I16" s="134"/>
+      <c r="I16" s="133"/>
       <c r="J16" s="119"/>
       <c r="K16" s="119"/>
       <c r="L16" s="119"/>
@@ -2479,22 +2585,22 @@
       <c r="Z16" s="120"/>
       <c r="AA16" s="120"/>
       <c r="AB16" s="92"/>
-      <c r="AD16" s="167"/>
+      <c r="AD16" s="164"/>
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="178" t="s">
+      <c r="A17" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="171"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="91"/>
-      <c r="D17" s="140" t="s">
+      <c r="D17" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
       <c r="J17" s="119"/>
       <c r="K17" s="119"/>
       <c r="L17" s="119"/>
@@ -2516,22 +2622,22 @@
       <c r="Z17" s="120"/>
       <c r="AA17" s="120"/>
       <c r="AB17" s="92"/>
-      <c r="AD17" s="166"/>
+      <c r="AD17" s="163"/>
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="178"/>
-      <c r="B18" s="171"/>
+      <c r="A18" s="176"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="91"/>
       <c r="D18" s="128" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
       <c r="J18" s="124"/>
       <c r="K18" s="124"/>
       <c r="L18" s="124"/>
@@ -2539,10 +2645,10 @@
       <c r="N18" s="124"/>
       <c r="O18" s="124"/>
       <c r="P18" s="124"/>
-      <c r="Q18" s="144"/>
+      <c r="Q18" s="143"/>
       <c r="R18" s="125"/>
-      <c r="S18" s="131"/>
-      <c r="T18" s="143"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="142"/>
       <c r="U18" s="107" t="s">
         <v>30</v>
       </c>
@@ -2553,59 +2659,59 @@
       <c r="Z18" s="120"/>
       <c r="AA18" s="120"/>
       <c r="AB18" s="92"/>
-      <c r="AD18" s="166"/>
+      <c r="AD18" s="163"/>
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="178"/>
-      <c r="B19" s="175"/>
+      <c r="A19" s="176"/>
+      <c r="B19" s="171"/>
       <c r="C19" s="91"/>
       <c r="D19" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="146" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="144"/>
-      <c r="G19" s="163" t="s">
+      <c r="E19" s="145" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="143"/>
+      <c r="G19" s="160" t="s">
         <v>46</v>
       </c>
       <c r="H19" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="148" t="s">
+      <c r="I19" s="147" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="148" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="O19" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="148" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="S19" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="T19" s="162" t="s">
+      <c r="K19" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="147" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="147" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" s="158" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" s="159" t="s">
         <v>30</v>
       </c>
       <c r="U19" s="107" t="s">
@@ -2620,18 +2726,18 @@
       <c r="AB19" s="92"/>
     </row>
     <row r="20" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="168"/>
+      <c r="A20" s="165"/>
       <c r="B20" s="87"/>
       <c r="C20" s="91"/>
       <c r="D20" s="119"/>
       <c r="E20" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="149" t="s">
-        <v>63</v>
+      <c r="G20" s="148" t="s">
+        <v>61</v>
       </c>
       <c r="H20" s="128" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="125" t="s">
         <v>3</v>
@@ -2643,7 +2749,7 @@
       </c>
       <c r="M20" s="121"/>
       <c r="N20" s="128" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="121"/>
       <c r="P20" s="126" t="s">
@@ -2651,10 +2757,10 @@
       </c>
       <c r="Q20" s="121"/>
       <c r="R20" s="128" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S20" s="127"/>
-      <c r="T20" s="143"/>
+      <c r="T20" s="142"/>
       <c r="U20" s="122"/>
       <c r="V20" s="120"/>
       <c r="W20" s="120"/>
@@ -2665,7 +2771,7 @@
       <c r="AB20" s="92"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="168"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="87"/>
       <c r="C21" s="91"/>
       <c r="D21" s="120"/>
@@ -2725,38 +2831,44 @@
       <c r="AB22" s="95"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="E23" s="176"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="N23" s="171"/>
-      <c r="O23" s="171"/>
-      <c r="P23" s="171"/>
-      <c r="R23" s="171"/>
-      <c r="S23" s="171"/>
-      <c r="T23" s="171"/>
-    </row>
-    <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="185" t="s">
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168"/>
+      <c r="O23" s="190"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="168"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="190"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="190"/>
+    </row>
+    <row r="24" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="185"/>
-      <c r="I24" s="185"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="184" t="s">
-        <v>60</v>
-      </c>
-      <c r="S24" s="184"/>
-      <c r="T24" s="184"/>
-      <c r="U24" s="184"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="L24" s="175" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="175"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="175" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="150"/>
+      <c r="T24" s="150"/>
+      <c r="U24" s="150"/>
       <c r="V24" s="129"/>
       <c r="W24" s="129"/>
       <c r="X24" s="129"/>
@@ -2765,23 +2877,21 @@
       <c r="AA24" s="129"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
       <c r="L25" s="129"/>
-      <c r="M25" s="184" t="s">
-        <v>61</v>
-      </c>
-      <c r="N25" s="184"/>
-      <c r="O25" s="184"/>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="129"/>
-      <c r="S25" s="129"/>
-      <c r="T25" s="129"/>
-      <c r="U25" s="129"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="150"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="150"/>
+      <c r="U25" s="150"/>
       <c r="V25" s="129"/>
       <c r="W25" s="129"/>
       <c r="X25" s="129"/>
@@ -2789,255 +2899,258 @@
       <c r="Z25" s="129"/>
       <c r="AA25" s="129"/>
     </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4">
+        <v>26</v>
+      </c>
+      <c r="H26" s="4">
+        <v>19</v>
+      </c>
+      <c r="I26" s="4">
+        <v>13</v>
+      </c>
+      <c r="J26" s="4">
+        <v>6</v>
+      </c>
+      <c r="K26" s="4">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="4">
+        <v>11</v>
+      </c>
+      <c r="O26" s="4">
+        <v>9</v>
+      </c>
+      <c r="P26" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" s="4">
+        <v>22</v>
+      </c>
+      <c r="S26" s="4">
+        <v>27</v>
+      </c>
+      <c r="T26" s="4">
+        <v>17</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="4">
+        <v>4</v>
+      </c>
+      <c r="W26" s="4">
+        <v>3</v>
+      </c>
+      <c r="X26" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="F27" s="4">
+        <v>21</v>
+      </c>
+      <c r="G27" s="4">
+        <v>20</v>
+      </c>
+      <c r="H27" s="4">
+        <v>16</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="4">
-        <v>26</v>
-      </c>
       <c r="J27" s="4">
-        <v>19</v>
-      </c>
-      <c r="K27" s="4">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="L27" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M27" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N27" s="4">
-        <v>0</v>
-      </c>
-      <c r="O27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="4">
+        <v>25</v>
+      </c>
+      <c r="P27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P27" s="4">
-        <v>11</v>
-      </c>
       <c r="Q27" s="4">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="R27" s="4">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="S27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="4">
         <v>18</v>
       </c>
-      <c r="T27" s="4">
-        <v>22</v>
-      </c>
       <c r="U27" s="4">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="V27" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="W27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X27" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y27" s="4">
+      <c r="X27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="H29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AA27" s="4" t="s">
+      <c r="I29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="H28" s="4">
-        <v>21</v>
-      </c>
-      <c r="I28" s="4">
-        <v>20</v>
-      </c>
-      <c r="J28" s="4">
-        <v>16</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L28" s="4">
-        <v>12</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N28" s="4">
+      <c r="T29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W29" s="117" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O28" s="4">
-        <v>7</v>
-      </c>
-      <c r="P28" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>25</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S28" s="4">
-        <v>24</v>
-      </c>
-      <c r="T28" s="4">
-        <v>23</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V28" s="4">
-        <v>18</v>
-      </c>
-      <c r="W28" s="4">
-        <v>15</v>
-      </c>
-      <c r="X28" s="4">
-        <v>14</v>
-      </c>
-      <c r="Y28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA28" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>52</v>
-      </c>
       <c r="H30" s="4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y30" s="117" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y31" s="118" t="s">
+      <c r="W30" s="118" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="E1:H1"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="D5:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B13:B14" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3061,30 +3174,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D1" s="180" t="s">
+      <c r="D1" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="180"/>
-      <c r="T1" s="180" t="s">
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="T1" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="180"/>
-      <c r="V1" s="180"/>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="86"/>
@@ -3483,11 +3596,11 @@
       <c r="X10" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="Y10" s="190" t="s">
+      <c r="Y10" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="190"/>
-      <c r="AA10" s="191"/>
+      <c r="Z10" s="182"/>
+      <c r="AA10" s="183"/>
       <c r="AB10" s="92"/>
     </row>
     <row r="11" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -3587,7 +3700,7 @@
       <c r="AB12" s="92"/>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="178" t="s">
+      <c r="A13" s="176" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="87"/>
@@ -3638,12 +3751,12 @@
         <v>47</v>
       </c>
       <c r="S13" s="38"/>
-      <c r="T13" s="192" t="s">
+      <c r="T13" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="192"/>
-      <c r="V13" s="192"/>
-      <c r="W13" s="193"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="184"/>
+      <c r="W13" s="185"/>
       <c r="X13" s="111" t="s">
         <v>49</v>
       </c>
@@ -3658,7 +3771,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="178"/>
+      <c r="A14" s="176"/>
       <c r="B14" s="87"/>
       <c r="C14" s="91"/>
       <c r="D14" s="17" t="s">
@@ -3711,7 +3824,7 @@
       <c r="AD14" s="186"/>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="178"/>
+      <c r="A15" s="176"/>
       <c r="B15" s="87"/>
       <c r="C15" s="91"/>
       <c r="D15" s="58" t="s">
@@ -3863,8 +3976,8 @@
       <c r="K18" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="190"/>
-      <c r="M18" s="190"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="182"/>
       <c r="N18" s="45"/>
       <c r="O18" s="79"/>
       <c r="P18" s="36"/>
@@ -3873,18 +3986,18 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="13"/>
-      <c r="V18" s="192" t="s">
+      <c r="V18" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="W18" s="192"/>
-      <c r="X18" s="192"/>
+      <c r="W18" s="184"/>
+      <c r="X18" s="184"/>
       <c r="Y18" s="45"/>
       <c r="Z18" s="36"/>
       <c r="AA18" s="35"/>
       <c r="AB18" s="92"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="178" t="s">
+      <c r="A19" s="176" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="87"/>
@@ -3922,7 +4035,7 @@
       <c r="AB19" s="92"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="178"/>
+      <c r="A20" s="176"/>
       <c r="B20" s="87"/>
       <c r="C20" s="91"/>
       <c r="D20" s="17" t="s">
@@ -3972,7 +4085,7 @@
       <c r="AB20" s="92"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="178"/>
+      <c r="A21" s="176"/>
       <c r="B21" s="87"/>
       <c r="C21" s="91"/>
       <c r="D21" s="58" t="s">
@@ -4032,36 +4145,36 @@
       <c r="AB22" s="95"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="M24" s="184" t="s">
+      <c r="M24" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="N24" s="184"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="184"/>
-      <c r="W24" s="184" t="s">
+      <c r="N24" s="174"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="174"/>
+      <c r="W24" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="X24" s="184"/>
-      <c r="Y24" s="184"/>
-      <c r="Z24" s="184"/>
-      <c r="AA24" s="184"/>
+      <c r="X24" s="174"/>
+      <c r="Y24" s="174"/>
+      <c r="Z24" s="174"/>
+      <c r="AA24" s="174"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H25" s="184" t="s">
+      <c r="H25" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="184"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="R25" s="184" t="s">
+      <c r="I25" s="174"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="174"/>
+      <c r="L25" s="174"/>
+      <c r="R25" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="S25" s="184"/>
-      <c r="T25" s="184"/>
-      <c r="U25" s="184"/>
-      <c r="V25" s="184"/>
+      <c r="S25" s="174"/>
+      <c r="T25" s="174"/>
+      <c r="U25" s="174"/>
+      <c r="V25" s="174"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
@@ -4298,11 +4411,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D1:R1"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="T1:X1"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="AD13:AD15"/>
     <mergeCell ref="W24:AA24"/>
@@ -4312,6 +4420,11 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="K18:M18"/>
+    <mergeCell ref="D1:R1"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
